--- a/config/forms/contact/person-create.xlsx
+++ b/config/forms/contact/person-create.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-zwei\config\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E709E90-ADAF-4EF4-A45E-1C7F975B9FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5E2E7-2E52-47C2-A880-AB93056A8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -362,17 +362,27 @@
   </si>
   <si>
     <t>contact:person:create</t>
+  </si>
+  <si>
+    <t>tel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -542,18 +552,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -565,17 +575,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyFont="1"/>
@@ -816,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3845A-F896-49F1-A4D0-28B7372345EF}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1410,8 +1421,8 @@
       </c>
     </row>
     <row r="25" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>20</v>
+      <c r="A25" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>105</v>
@@ -1818,7 +1829,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1860,7 +1871,7 @@
       </c>
       <c r="C2" s="12" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-10-20 6-58</v>
+        <v>2023-11-12 22-44</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" t="s">

--- a/config/forms/contact/person-create.xlsx
+++ b/config/forms/contact/person-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5E2E7-2E52-47C2-A880-AB93056A8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5FDBC-AC2B-4DB9-822F-9C5361EF3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -46,9 +46,6 @@
     <t>label::en</t>
   </si>
   <si>
-    <t>label::sw</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>constraint_message::en</t>
   </si>
   <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
     <t>calculation</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>hint::en</t>
   </si>
   <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -106,39 +97,24 @@
     <t>Contact ID of the logged in user</t>
   </si>
   <si>
-    <t>Namba ya Usajilisho ya mtumiaji wa huduma hii</t>
-  </si>
-  <si>
     <t>facility_id</t>
   </si>
   <si>
     <t>Place ID of the logged in user</t>
   </si>
   <si>
-    <t>Kitambulisho cha mahali cha mtumizi wa huduma hii</t>
-  </si>
-  <si>
     <t>Name of the logged in user</t>
   </si>
   <si>
-    <t>Jina ya mtumizi</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
     <t>init</t>
   </si>
   <si>
-    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types. Last part is now incorrect... as long as it is read only it could be a string of appearance db-object and work fine.</t>
-  </si>
-  <si>
     <t>parent_id</t>
   </si>
   <si>
-    <t>Ni wa</t>
-  </si>
-  <si>
     <t>db-object</t>
   </si>
   <si>
@@ -181,21 +157,12 @@
     <t>Parent ID</t>
   </si>
   <si>
-    <t>ID ya mzazi</t>
-  </si>
-  <si>
     <t>PARENT</t>
   </si>
   <si>
     <t>Person type</t>
   </si>
   <si>
-    <t>Jina</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -220,9 +187,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -247,15 +211,9 @@
     <t>en</t>
   </si>
   <si>
-    <t>minimal</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
-    <t>surname</t>
-  </si>
-  <si>
     <t>subcounty</t>
   </si>
   <si>
@@ -265,30 +223,6 @@
     <t>meta</t>
   </si>
   <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>select_one roles</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Jukumu</t>
-  </si>
-  <si>
-    <t>Select the role that best suits this person</t>
-  </si>
-  <si>
-    <t>Chagua jukumu linachoambatana na huyu mtu</t>
-  </si>
-  <si>
     <t>../../../inputs/user/name</t>
   </si>
   <si>
@@ -301,21 +235,6 @@
     <t>At</t>
   </si>
   <si>
-    <t>Middle name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>concat(${first_name}, ' ', ${last_name}, ' ', ${surname})</t>
-  </si>
-  <si>
-    <t>role_label</t>
-  </si>
-  <si>
-    <t>jr:choice-name(${role},'${role}')</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -365,94 +284,20 @@
   </si>
   <si>
     <t>tel</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -485,24 +330,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -512,31 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -550,20 +359,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -575,30 +380,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+  <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -825,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3845A-F896-49F1-A4D0-28B7372345EF}">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,16 +623,14 @@
     <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" customWidth="1"/>
-    <col min="11" max="11" width="22.26953125" customWidth="1"/>
-    <col min="12" max="12" width="27.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +640,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -870,13 +655,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -885,822 +670,323 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="E2" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="14" t="b">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-    </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-    </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-    </row>
-    <row r="7" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17" t="s">
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-    </row>
-    <row r="16" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:29" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="15" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:29" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-    </row>
-    <row r="34" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-    </row>
-    <row r="35" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-    </row>
-    <row r="36" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,90 +1016,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>59</v>
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1843,47 +1129,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>67</v>
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-12 22-44</v>
-      </c>
-      <c r="D2" s="13"/>
+        <v>2023-11-20 22-14</v>
+      </c>
+      <c r="D2" s="10"/>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="13" t="s">
-        <v>74</v>
+      <c r="D3" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/config/forms/contact/person-create.xlsx
+++ b/config/forms/contact/person-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5FDBC-AC2B-4DB9-822F-9C5361EF3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50265AC-1B2D-46BC-9ABC-B33AB4FFE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3845A-F896-49F1-A4D0-28B7372345EF}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-20 22-14</v>
+        <v>2024-01-20 11-50</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" t="s">

--- a/config/forms/contact/person-create.xlsx
+++ b/config/forms/contact/person-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50265AC-1B2D-46BC-9ABC-B33AB4FFE49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12989280-8766-426C-921C-4EBA01324966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -268,22 +268,7 @@
     <t>Outbreak</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>contact:person:create</t>
-  </si>
-  <si>
-    <t>tel</t>
   </si>
   <si>
     <t>Name</t>
@@ -612,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3845A-F896-49F1-A4D0-28B7372345EF}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,50 +884,47 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:13" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -950,41 +932,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+    <row r="27" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+    <row r="28" spans="1:13" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1153,11 +1113,11 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-20 11-50</v>
+        <v>2024-01-29 12-10</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" t="s">
